--- a/AkioAILocal/race_data/大井ダ2000.xlsx
+++ b/AkioAILocal/race_data/大井ダ2000.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.04545454545455</v>
+        <v>42.38900634249471</v>
       </c>
       <c r="C2">
         <v>57</v>
@@ -474,13 +474,13 @@
         <v>40.58333333333334</v>
       </c>
       <c r="H2">
-        <v>9.420289855072465</v>
+        <v>9.84848484848485</v>
       </c>
       <c r="I2">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J2">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.63636363636363</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C3">
         <v>57</v>
@@ -515,13 +515,13 @@
         <v>36.33333333333333</v>
       </c>
       <c r="H3">
-        <v>3.623188405797102</v>
+        <v>3.787878787878787</v>
       </c>
       <c r="I3">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J3">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.1578947368421</v>
+        <v>28.54251012145749</v>
       </c>
       <c r="C4">
         <v>55</v>
@@ -556,13 +556,13 @@
         <v>22.33333333333333</v>
       </c>
       <c r="H4">
-        <v>3.623188405797102</v>
+        <v>3.787878787878787</v>
       </c>
       <c r="I4">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J4">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C5">
         <v>57</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J5">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.33503836317136</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C6">
         <v>57</v>
@@ -638,13 +638,13 @@
         <v>28</v>
       </c>
       <c r="H6">
-        <v>2.173913043478261</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="I6">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J6">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.36789297658863</v>
+        <v>10.76555023923445</v>
       </c>
       <c r="C7">
         <v>57</v>
@@ -670,7 +670,7 @@
         <v>17.33333333333333</v>
       </c>
       <c r="E7">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>24.5</v>
       </c>
       <c r="H7">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I7">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.72023809523809</v>
+        <v>29.03963414634146</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -720,7 +720,7 @@
         <v>26.08333333333334</v>
       </c>
       <c r="H8">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C9">
         <v>57</v>
@@ -761,13 +761,13 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H9">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I9">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J9">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.81329923273658</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C10">
         <v>57</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J10">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.32828282828283</v>
+        <v>20.67183462532299</v>
       </c>
       <c r="C11">
         <v>57</v>
@@ -843,13 +843,13 @@
         <v>27</v>
       </c>
       <c r="H11">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.59523809523809</v>
+        <v>25.91463414634146</v>
       </c>
       <c r="C12">
         <v>57</v>
@@ -884,7 +884,7 @@
         <v>25.33333333333334</v>
       </c>
       <c r="H12">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C13">
         <v>57</v>
@@ -925,10 +925,10 @@
         <v>19.91666666666667</v>
       </c>
       <c r="H13">
-        <v>5.072463768115943</v>
+        <v>5.303030303030303</v>
       </c>
       <c r="I13">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.88963210702341</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C14">
         <v>55</v>
@@ -989,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.52033660589061</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C15">
         <v>57</v>
@@ -1007,7 +1007,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H15">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.2531328320802</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C16">
         <v>57</v>
@@ -1048,13 +1048,13 @@
         <v>45.5</v>
       </c>
       <c r="H16">
-        <v>9.420289855072465</v>
+        <v>9.84848484848485</v>
       </c>
       <c r="I16">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J16">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K16">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.73160173160173</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C17">
         <v>57</v>
@@ -1089,10 +1089,10 @@
         <v>44.66666666666667</v>
       </c>
       <c r="H17">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I17">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C18">
         <v>57</v>
@@ -1130,13 +1130,13 @@
         <v>33.25</v>
       </c>
       <c r="H18">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I18">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J18">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K18">
         <v>14</v>
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.27272727272727</v>
+        <v>27.61627906976744</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.39772727272727</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C20">
         <v>57</v>
@@ -1212,7 +1212,7 @@
         <v>31.83333333333333</v>
       </c>
       <c r="H20">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C21">
         <v>57</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J21">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C22">
         <v>57</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C23">
         <v>57</v>
@@ -1335,13 +1335,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H23">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1159420289854438</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.54180602006689</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C24">
         <v>57</v>
@@ -1376,13 +1376,13 @@
         <v>25.33333333333334</v>
       </c>
       <c r="H24">
-        <v>5.072463768115943</v>
+        <v>5.303030303030303</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.52173913043478</v>
+        <v>22.2027972027972</v>
       </c>
       <c r="C25">
         <v>55</v>
@@ -1417,7 +1417,7 @@
         <v>28.58333333333334</v>
       </c>
       <c r="H25">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>28.04347826086956</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C26">
         <v>55</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C27">
         <v>57</v>
@@ -1522,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>42.04545454545455</v>
+        <v>42.38900634249471</v>
       </c>
       <c r="C28">
         <v>57</v>
@@ -1540,10 +1540,10 @@
         <v>13.58333333333333</v>
       </c>
       <c r="H28">
-        <v>2.898550724637682</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I28">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34.33503836317136</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C29">
         <v>53</v>
@@ -1581,10 +1581,10 @@
         <v>26.91666666666666</v>
       </c>
       <c r="H29">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I29">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28.72023809523809</v>
+        <v>29.03963414634146</v>
       </c>
       <c r="C30">
         <v>57</v>
@@ -1622,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I30">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C31">
         <v>55</v>
@@ -1686,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33.52033660589061</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C32">
         <v>55</v>
@@ -1704,7 +1704,7 @@
         <v>15.5</v>
       </c>
       <c r="H32">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C33">
         <v>55</v>
@@ -1736,7 +1736,7 @@
         <v>28.33333333333333</v>
       </c>
       <c r="E33">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>28.1578947368421</v>
+        <v>28.54251012145749</v>
       </c>
       <c r="C34">
         <v>57</v>
@@ -1809,7 +1809,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>25.59523809523809</v>
+        <v>25.91463414634146</v>
       </c>
       <c r="C35">
         <v>55</v>
@@ -1850,7 +1850,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20.32828282828283</v>
+        <v>20.67183462532299</v>
       </c>
       <c r="C36">
         <v>57</v>
@@ -1891,7 +1891,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>28.63636363636363</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C37">
         <v>53</v>
@@ -1909,7 +1909,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H37">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>27.81329923273658</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C38">
         <v>57</v>
@@ -1950,7 +1950,7 @@
         <v>16.25</v>
       </c>
       <c r="H38">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C39">
         <v>55</v>
@@ -2014,7 +2014,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10.36789297658863</v>
+        <v>10.76555023923445</v>
       </c>
       <c r="C40">
         <v>55</v>
@@ -2055,7 +2055,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>16.88963210702341</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C41">
         <v>57</v>
@@ -2096,7 +2096,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>30.39772727272727</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C42">
         <v>57</v>
@@ -2114,13 +2114,13 @@
         <v>45.5</v>
       </c>
       <c r="H42">
-        <v>9.420289855072465</v>
+        <v>9.84848484848485</v>
       </c>
       <c r="I42">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J42">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K42">
         <v>40</v>
@@ -2137,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C43">
         <v>57</v>
@@ -2155,13 +2155,13 @@
         <v>35.5</v>
       </c>
       <c r="H43">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I43">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J43">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K43">
         <v>40</v>
@@ -2178,7 +2178,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>27.27272727272727</v>
+        <v>27.61627906976744</v>
       </c>
       <c r="C44">
         <v>57</v>
@@ -2196,13 +2196,13 @@
         <v>11.58333333333333</v>
       </c>
       <c r="H44">
-        <v>2.173913043478261</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I44">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J44">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K44">
         <v>40</v>
@@ -2219,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C45">
         <v>57</v>
@@ -2237,13 +2237,13 @@
         <v>34.75</v>
       </c>
       <c r="H45">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I45">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J45">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>26.2531328320802</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C46">
         <v>57</v>
@@ -2301,7 +2301,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>26.73160173160173</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C47">
         <v>57</v>
@@ -2319,13 +2319,13 @@
         <v>22.33333333333333</v>
       </c>
       <c r="H47">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I47">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J47">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12.54180602006689</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C48">
         <v>57</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J48">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>28.04347826086956</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C49">
         <v>57</v>
@@ -2401,13 +2401,13 @@
         <v>28.58333333333334</v>
       </c>
       <c r="H49">
-        <v>2.898550724637682</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I49">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J49">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21.52173913043478</v>
+        <v>22.2027972027972</v>
       </c>
       <c r="C50">
         <v>57</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J50">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C51">
         <v>57</v>
@@ -2483,7 +2483,7 @@
         <v>16.83333333333334</v>
       </c>
       <c r="H51">
-        <v>4.347826086956522</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C52">
         <v>57</v>
@@ -2524,13 +2524,13 @@
         <v>0.5</v>
       </c>
       <c r="H52">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C53">
         <v>55</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>28.04347826086956</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C54">
         <v>57</v>
@@ -2606,10 +2606,10 @@
         <v>31.33333333333333</v>
       </c>
       <c r="H54">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I54">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C55">
         <v>55</v>
@@ -2647,13 +2647,13 @@
         <v>25.66666666666666</v>
       </c>
       <c r="H55">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I55">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J55">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K55">
         <v>52</v>
@@ -2670,7 +2670,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C56">
         <v>57</v>
@@ -2688,13 +2688,13 @@
         <v>32.25</v>
       </c>
       <c r="H56">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I56">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J56">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K56">
         <v>52</v>
@@ -2711,7 +2711,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C57">
         <v>57</v>
@@ -2729,10 +2729,10 @@
         <v>21.5</v>
       </c>
       <c r="H57">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I57">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21.52173913043478</v>
+        <v>22.2027972027972</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2770,10 +2770,10 @@
         <v>22.25</v>
       </c>
       <c r="H58">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I58">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12.54180602006689</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -2811,13 +2811,13 @@
         <v>35.5</v>
       </c>
       <c r="H59">
-        <v>3.623188405797102</v>
+        <v>3.787878787878787</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>26.73160173160173</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C60">
         <v>57</v>
@@ -2852,10 +2852,10 @@
         <v>14.91666666666667</v>
       </c>
       <c r="H60">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I60">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C61">
         <v>57</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>26.2531328320802</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C62">
         <v>57</v>
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J62">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>30.39772727272727</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C63">
         <v>57</v>
@@ -2966,7 +2966,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="E63">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>27.27272727272727</v>
+        <v>27.61627906976744</v>
       </c>
       <c r="C64">
         <v>57</v>
@@ -3016,13 +3016,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H64">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C65">
         <v>57</v>
@@ -3057,13 +3057,13 @@
         <v>25.33333333333334</v>
       </c>
       <c r="H65">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>26.73160173160173</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C66">
         <v>55</v>
@@ -3098,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="H66">
-        <v>2.898550724637682</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I66">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C67">
         <v>55</v>
@@ -3130,7 +3130,7 @@
         <v>12.16666666666667</v>
       </c>
       <c r="E67">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>26.83333333333334</v>
       </c>
       <c r="H67">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I67">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C68">
         <v>53</v>
@@ -3180,10 +3180,10 @@
         <v>7.083333333333333</v>
       </c>
       <c r="H68">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I68">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21.52173913043478</v>
+        <v>22.2027972027972</v>
       </c>
       <c r="C69">
         <v>55</v>
@@ -3244,7 +3244,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C70">
         <v>55</v>
@@ -3253,7 +3253,7 @@
         <v>7.8</v>
       </c>
       <c r="E70">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0.625</v>
       </c>
       <c r="H70">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.2531328320802</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C71">
         <v>55</v>
@@ -3326,7 +3326,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C72">
         <v>56</v>
@@ -3367,7 +3367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C73">
         <v>55</v>
@@ -3408,7 +3408,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>30.39772727272727</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C74">
         <v>55</v>
@@ -3449,7 +3449,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>27.27272727272727</v>
+        <v>27.61627906976744</v>
       </c>
       <c r="C75">
         <v>55</v>
@@ -3467,7 +3467,7 @@
         <v>22.08333333333333</v>
       </c>
       <c r="H75">
-        <v>7.971014492753623</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>28.04347826086956</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C76">
         <v>55</v>
@@ -3531,7 +3531,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>12.54180602006689</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C77">
         <v>55</v>
@@ -3549,7 +3549,7 @@
         <v>27.66666666666666</v>
       </c>
       <c r="H77">
-        <v>7.971014492753623</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C78">
         <v>57</v>
@@ -3590,13 +3590,13 @@
         <v>38.83333333333333</v>
       </c>
       <c r="H78">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I78">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J78">
-        <v>0.1159420289854438</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K78">
         <v>76</v>
@@ -3613,7 +3613,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C79">
         <v>57</v>
@@ -3631,13 +3631,13 @@
         <v>37.16666666666667</v>
       </c>
       <c r="H79">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I79">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J79">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K79">
         <v>76</v>
@@ -3654,7 +3654,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>23.69565217391305</v>
+        <v>24.47552447552447</v>
       </c>
       <c r="C80">
         <v>57</v>
@@ -3672,13 +3672,13 @@
         <v>31.33333333333333</v>
       </c>
       <c r="H80">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I80">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J80">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K80">
         <v>76</v>
@@ -3695,7 +3695,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28.40909090909091</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C81">
         <v>55</v>
@@ -3736,7 +3736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C82">
         <v>57</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>19.61697722567288</v>
+        <v>20.23281596452328</v>
       </c>
       <c r="C83">
         <v>57</v>
@@ -3795,13 +3795,13 @@
         <v>18.16666666666666</v>
       </c>
       <c r="H83">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I83">
-        <v>13.04347826086956</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J83">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>27.93062200956938</v>
+        <v>28.27417380660955</v>
       </c>
       <c r="C84">
         <v>57</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J84">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C85">
         <v>55</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>26.13871635610766</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C86">
         <v>57</v>
@@ -3918,7 +3918,7 @@
         <v>25.16666666666666</v>
       </c>
       <c r="H86">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C88">
         <v>55</v>
@@ -4000,10 +4000,10 @@
         <v>18.5</v>
       </c>
       <c r="H88">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I88">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>28.40909090909091</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C89">
         <v>55</v>
@@ -4041,10 +4041,10 @@
         <v>25.25</v>
       </c>
       <c r="H89">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I89">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>27.81620553359684</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C90">
         <v>56</v>
@@ -4073,7 +4073,7 @@
         <v>8.833333333333334</v>
       </c>
       <c r="E90">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4082,10 +4082,10 @@
         <v>4.5</v>
       </c>
       <c r="H90">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I90">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C91">
         <v>55</v>
@@ -4146,7 +4146,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C92">
         <v>55</v>
@@ -4187,7 +4187,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>19.61697722567288</v>
+        <v>20.23281596452328</v>
       </c>
       <c r="C93">
         <v>57</v>
@@ -4196,7 +4196,7 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C94">
         <v>55</v>
@@ -4269,7 +4269,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C95">
         <v>55</v>
@@ -4310,7 +4310,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>23.69565217391305</v>
+        <v>24.47552447552447</v>
       </c>
       <c r="C96">
         <v>55</v>
@@ -4328,7 +4328,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="H96">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>24.82468443197756</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="C97">
         <v>57</v>
@@ -4369,10 +4369,10 @@
         <v>38.08333333333334</v>
       </c>
       <c r="H97">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I97">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>25.63938618925831</v>
+        <v>25</v>
       </c>
       <c r="C98">
         <v>57</v>
@@ -4410,13 +4410,13 @@
         <v>23.08333333333334</v>
       </c>
       <c r="H98">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I98">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J98">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K98">
         <v>95</v>
@@ -4433,7 +4433,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>40.36796536796537</v>
+        <v>40.68736141906874</v>
       </c>
       <c r="C99">
         <v>57</v>
@@ -4451,13 +4451,13 @@
         <v>39.66666666666666</v>
       </c>
       <c r="H99">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I99">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J99">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K99">
         <v>95</v>
@@ -4474,7 +4474,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>30.625</v>
+        <v>31.00961538461539</v>
       </c>
       <c r="C100">
         <v>55</v>
@@ -4495,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J100">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>14.77272727272728</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="C101">
         <v>57</v>
@@ -4533,13 +4533,13 @@
         <v>30.66666666666666</v>
       </c>
       <c r="H101">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I101">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J101">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>17.48251748251748</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C102">
         <v>57</v>
@@ -4574,13 +4574,13 @@
         <v>29.75</v>
       </c>
       <c r="H102">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I102">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J102">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>18.65079365079365</v>
+        <v>18.97018970189702</v>
       </c>
       <c r="C103">
         <v>57</v>
@@ -4615,13 +4615,13 @@
         <v>27.25</v>
       </c>
       <c r="H103">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I103">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J103">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.27639751552795</v>
+        <v>11.95286195286195</v>
       </c>
       <c r="C104">
         <v>57</v>
@@ -4656,13 +4656,13 @@
         <v>18.16666666666666</v>
       </c>
       <c r="H104">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I104">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J104">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4679,7 +4679,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>24.77272727272727</v>
+        <v>25.11627906976744</v>
       </c>
       <c r="C105">
         <v>57</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>32.16112531969309</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="C106">
         <v>57</v>
@@ -4729,7 +4729,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J106">
-        <v>0.1159420289854438</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4761,7 +4761,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>27.5</v>
+        <v>27.88461538461539</v>
       </c>
       <c r="C107">
         <v>57</v>
@@ -4779,13 +4779,13 @@
         <v>0.5</v>
       </c>
       <c r="H107">
-        <v>2.173913043478261</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31.34642356241235</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C108">
         <v>57</v>
@@ -4820,7 +4820,7 @@
         <v>14.08333333333333</v>
       </c>
       <c r="H108">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>20.96273291925466</v>
+        <v>19.61279461279461</v>
       </c>
       <c r="C109">
         <v>57</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>19.48051948051948</v>
+        <v>17.98941798941799</v>
       </c>
       <c r="C110">
         <v>55</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C111">
         <v>57</v>
@@ -4943,13 +4943,13 @@
         <v>25.16666666666666</v>
       </c>
       <c r="H111">
-        <v>2.173913043478261</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>17.00404858299595</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="C112">
         <v>57</v>
@@ -5007,7 +5007,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>27.81620553359684</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C113">
         <v>56</v>
@@ -5016,7 +5016,7 @@
         <v>21.5</v>
       </c>
       <c r="E113">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5025,10 +5025,10 @@
         <v>11.08333333333333</v>
       </c>
       <c r="H113">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I113">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>19.61697722567288</v>
+        <v>20.23281596452328</v>
       </c>
       <c r="C114">
         <v>55</v>
@@ -5057,7 +5057,7 @@
         <v>7.666666666666667</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>8.583333333333334</v>
       </c>
       <c r="H114">
-        <v>5.072463768115943</v>
+        <v>5.303030303030303</v>
       </c>
       <c r="I114">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C115">
         <v>58</v>
@@ -5107,10 +5107,10 @@
         <v>5.416666666666667</v>
       </c>
       <c r="H115">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I115">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C116">
         <v>56</v>
@@ -5148,10 +5148,10 @@
         <v>6.25</v>
       </c>
       <c r="H116">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I116">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>23.69565217391305</v>
+        <v>24.47552447552447</v>
       </c>
       <c r="C117">
         <v>55</v>
@@ -5212,7 +5212,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C118">
         <v>55</v>
@@ -5230,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="H118">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C119">
         <v>56</v>
@@ -5271,10 +5271,10 @@
         <v>3.75</v>
       </c>
       <c r="H119">
-        <v>2.898550724637682</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I119">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>28.40909090909091</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C120">
         <v>55</v>
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C121">
         <v>55</v>
@@ -5376,7 +5376,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>24.77272727272727</v>
+        <v>25.11627906976744</v>
       </c>
       <c r="C122">
         <v>57</v>
@@ -5394,13 +5394,13 @@
         <v>34.75</v>
       </c>
       <c r="H122">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I122">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J122">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K122">
         <v>120</v>
@@ -5417,7 +5417,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>31.34642356241235</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C123">
         <v>57</v>
@@ -5435,10 +5435,10 @@
         <v>33.16666666666666</v>
       </c>
       <c r="H123">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I123">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>17.00404858299595</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="C124">
         <v>57</v>
@@ -5476,10 +5476,10 @@
         <v>43</v>
       </c>
       <c r="H124">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I124">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C125">
         <v>57</v>
@@ -5517,13 +5517,13 @@
         <v>32.25</v>
       </c>
       <c r="H125">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I125">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J125">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5540,7 +5540,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>40.36796536796537</v>
+        <v>40.68736141906874</v>
       </c>
       <c r="C126">
         <v>57</v>
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J126">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>20.96273291925466</v>
+        <v>19.61279461279461</v>
       </c>
       <c r="C127">
         <v>57</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>18.65079365079365</v>
+        <v>18.97018970189702</v>
       </c>
       <c r="C128">
         <v>57</v>
@@ -5640,13 +5640,13 @@
         <v>23.16666666666666</v>
       </c>
       <c r="H128">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I128">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J128">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>32.16112531969309</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="C129">
         <v>57</v>
@@ -5681,13 +5681,13 @@
         <v>19.91666666666667</v>
       </c>
       <c r="H129">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I129">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J129">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>14.77272727272728</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="C130">
         <v>57</v>
@@ -5713,7 +5713,7 @@
         <v>7.833333333333333</v>
       </c>
       <c r="E130">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5722,13 +5722,13 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H130">
-        <v>4.347826086956522</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.1159420289854438</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -5745,7 +5745,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>30.625</v>
+        <v>31.00961538461539</v>
       </c>
       <c r="C131">
         <v>57</v>
@@ -5763,13 +5763,13 @@
         <v>12.41666666666667</v>
       </c>
       <c r="H131">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I131">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J131">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>17.48251748251748</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C132">
         <v>57</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>13.27639751552795</v>
+        <v>11.95286195286195</v>
       </c>
       <c r="C133">
         <v>57</v>
@@ -5845,10 +5845,10 @@
         <v>18.25</v>
       </c>
       <c r="H133">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I133">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>24.82468443197756</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="C134">
         <v>57</v>
@@ -5886,13 +5886,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H134">
-        <v>4.347826086956522</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>27.5</v>
+        <v>27.88461538461539</v>
       </c>
       <c r="C135">
         <v>57</v>
@@ -5927,10 +5927,10 @@
         <v>14.83333333333333</v>
       </c>
       <c r="H135">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I135">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>19.48051948051948</v>
+        <v>17.98941798941799</v>
       </c>
       <c r="C136">
         <v>57</v>
@@ -5968,7 +5968,7 @@
         <v>5.416666666666667</v>
       </c>
       <c r="H136">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>25.63938618925831</v>
+        <v>25</v>
       </c>
       <c r="C137">
         <v>57</v>
@@ -6012,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J137">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -6032,7 +6032,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>34.33503836317136</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C138">
         <v>57</v>
@@ -6050,13 +6050,13 @@
         <v>33.91666666666666</v>
       </c>
       <c r="H138">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I138">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J138">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K138">
         <v>136</v>
@@ -6073,7 +6073,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>42.04545454545455</v>
+        <v>42.38900634249471</v>
       </c>
       <c r="C139">
         <v>57</v>
@@ -6091,10 +6091,10 @@
         <v>29.66666666666666</v>
       </c>
       <c r="H139">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I139">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>33.52033660589061</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C140">
         <v>57</v>
@@ -6132,13 +6132,13 @@
         <v>22.41666666666667</v>
       </c>
       <c r="H140">
-        <v>6.521739130434783</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="I140">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J140">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K140">
         <v>136</v>
@@ -6155,7 +6155,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>25.59523809523809</v>
+        <v>25.91463414634146</v>
       </c>
       <c r="C141">
         <v>57</v>
@@ -6173,13 +6173,13 @@
         <v>30.58333333333334</v>
       </c>
       <c r="H141">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I141">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J141">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C142">
         <v>57</v>
@@ -6214,13 +6214,13 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H142">
-        <v>1.449275362318841</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I142">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J142">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>27.81329923273658</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C143">
         <v>57</v>
@@ -6258,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J143">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>28.1578947368421</v>
+        <v>28.54251012145749</v>
       </c>
       <c r="C144">
         <v>57</v>
@@ -6296,13 +6296,13 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H144">
-        <v>7.246376811594203</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I144">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J144">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.36789297658863</v>
+        <v>10.76555023923445</v>
       </c>
       <c r="C145">
         <v>57</v>
@@ -6337,13 +6337,13 @@
         <v>24.91666666666667</v>
       </c>
       <c r="H145">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I145">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J145">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>16.88963210702341</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C146">
         <v>57</v>
@@ -6369,7 +6369,7 @@
         <v>12.33333333333333</v>
       </c>
       <c r="E146">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F146">
         <v>1.299999999999997</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0.1159420289854438</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>28.72023809523809</v>
+        <v>29.03963414634146</v>
       </c>
       <c r="C147">
         <v>57</v>
@@ -6422,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J147">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6442,7 +6442,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C148">
         <v>57</v>
@@ -6463,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J148">
-        <v>0.1159420289854438</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>28.63636363636363</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C149">
         <v>57</v>
@@ -6501,10 +6501,10 @@
         <v>22.66666666666666</v>
       </c>
       <c r="H149">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I149">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>20.32828282828283</v>
+        <v>20.67183462532299</v>
       </c>
       <c r="C150">
         <v>55</v>
@@ -6542,7 +6542,7 @@
         <v>7.583333333333333</v>
       </c>
       <c r="H150">
-        <v>6.521739130434782</v>
+        <v>6.818181818181817</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C151">
         <v>55</v>
@@ -6583,7 +6583,7 @@
         <v>14.08333333333333</v>
       </c>
       <c r="H151">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>23.69565217391305</v>
+        <v>24.47552447552447</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -6615,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="E152">
-        <v>57.14285714285714</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H152">
-        <v>2.173913043478261</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I152">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>36.50895140664962</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C153">
         <v>57</v>
@@ -6665,10 +6665,10 @@
         <v>9.5</v>
       </c>
       <c r="H153">
-        <v>2.898550724637682</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I153">
-        <v>5.797101449275362</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C154">
         <v>55</v>
@@ -6697,7 +6697,7 @@
         <v>8.166666666666666</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6706,10 +6706,10 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H154">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I154">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C155">
         <v>55</v>
@@ -6770,7 +6770,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>27.93062200956938</v>
+        <v>28.27417380660955</v>
       </c>
       <c r="C156">
         <v>55</v>
@@ -6811,7 +6811,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>19.06354515050167</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C157">
         <v>55</v>
@@ -6852,7 +6852,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>28.40909090909091</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C158">
         <v>55</v>
@@ -6870,10 +6870,10 @@
         <v>8.583333333333334</v>
       </c>
       <c r="H158">
-        <v>7.971014492753623</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I158">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>19.61697722567288</v>
+        <v>20.23281596452328</v>
       </c>
       <c r="C159">
         <v>55</v>
@@ -6911,7 +6911,7 @@
         <v>19.58333333333333</v>
       </c>
       <c r="H159">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6934,7 +6934,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>26.13871635610766</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C160">
         <v>55</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C161">
         <v>55</v>
@@ -6993,7 +6993,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H161">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>25.59523809523809</v>
+        <v>25.91463414634146</v>
       </c>
       <c r="C162">
         <v>57</v>
@@ -7034,13 +7034,13 @@
         <v>27.25</v>
       </c>
       <c r="H162">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I162">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J162">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K162">
         <v>160</v>
@@ -7057,7 +7057,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>16.88963210702341</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C163">
         <v>57</v>
@@ -7075,13 +7075,13 @@
         <v>39.66666666666667</v>
       </c>
       <c r="H163">
-        <v>4.347826086956522</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I163">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J163">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K163">
         <v>160</v>
@@ -7098,7 +7098,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.32828282828283</v>
+        <v>20.67183462532299</v>
       </c>
       <c r="C164">
         <v>57</v>
@@ -7116,13 +7116,13 @@
         <v>40.5</v>
       </c>
       <c r="H164">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I164">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J164">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K164">
         <v>160</v>
@@ -7139,7 +7139,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>34.33503836317136</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C165">
         <v>57</v>
@@ -7157,13 +7157,13 @@
         <v>24.75</v>
       </c>
       <c r="H165">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I165">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J165">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C166">
         <v>57</v>
@@ -7198,13 +7198,13 @@
         <v>21.41666666666666</v>
       </c>
       <c r="H166">
-        <v>10.14492753623188</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I166">
-        <v>20.28985507246377</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J166">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>33.52033660589061</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C167">
         <v>57</v>
@@ -7239,13 +7239,13 @@
         <v>25.5</v>
       </c>
       <c r="H167">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>2.115942028985444</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7262,7 +7262,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>28.63636363636363</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C168">
         <v>57</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>3.115942028985444</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>27.81329923273658</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C169">
         <v>57</v>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J169">
-        <v>1.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.36789297658863</v>
+        <v>10.76555023923445</v>
       </c>
       <c r="C170">
         <v>55</v>
@@ -7353,7 +7353,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="E170">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>13.75</v>
       </c>
       <c r="H170">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7385,7 +7385,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>32.03812316715543</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C171">
         <v>57</v>
@@ -7403,7 +7403,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H171">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>42.04545454545455</v>
+        <v>42.38900634249471</v>
       </c>
       <c r="C172">
         <v>57</v>
@@ -7444,10 +7444,10 @@
         <v>3</v>
       </c>
       <c r="H172">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I172">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>28.1578947368421</v>
+        <v>28.54251012145749</v>
       </c>
       <c r="C173">
         <v>57</v>
@@ -7485,7 +7485,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H173">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7508,7 +7508,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>28.72023809523809</v>
+        <v>29.03963414634146</v>
       </c>
       <c r="C174">
         <v>57</v>
@@ -7526,7 +7526,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H174">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>17.62422360248448</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C175">
         <v>57</v>
@@ -7590,37 +7590,37 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>36.50895140664962</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C176">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D176">
-        <v>10.66666666666667</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="E176">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="G176">
-        <v>6.25</v>
+        <v>31.41666666666666</v>
       </c>
       <c r="H176">
-        <v>1.449275362318841</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I176">
-        <v>1.449275362318841</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K176">
         <v>174</v>
       </c>
       <c r="L176">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M176">
         <v>1</v>
@@ -7631,37 +7631,37 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>32.03812316715543</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C177">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D177">
-        <v>23.5</v>
+        <v>31</v>
       </c>
       <c r="E177">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G177">
-        <v>28.58333333333334</v>
+        <v>33.08333333333334</v>
       </c>
       <c r="H177">
-        <v>2.173913043478261</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I177">
-        <v>1.449275362318841</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K177">
         <v>174</v>
       </c>
       <c r="L177">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M177">
         <v>2</v>
@@ -7672,37 +7672,37 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>17.62422360248448</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C178">
         <v>57</v>
       </c>
       <c r="D178">
-        <v>8.333333333333334</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="E178">
-        <v>28.57142857142857</v>
+        <v>49.625</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="G178">
-        <v>8.666666666666666</v>
+        <v>24</v>
       </c>
       <c r="H178">
-        <v>2.173913043478261</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I178">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>3.924242424242323</v>
       </c>
       <c r="K178">
         <v>174</v>
       </c>
       <c r="L178">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M178">
         <v>3</v>
@@ -7713,28 +7713,28 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>27.81620553359684</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C179">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="G179">
-        <v>2.083333333333333</v>
+        <v>35.5</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I179">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7754,28 +7754,28 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>19.06354515050167</v>
+        <v>10.76555023923445</v>
       </c>
       <c r="C180">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D180">
-        <v>7.833333333333333</v>
+        <v>29</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>7.083333333333333</v>
+        <v>18.16666666666666</v>
       </c>
       <c r="H180">
-        <v>3.623188405797102</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I180">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -7795,28 +7795,28 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>23.69565217391305</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C181">
         <v>57</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>1.333333333333333</v>
+        <v>27.25</v>
       </c>
       <c r="H181">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7836,25 +7836,25 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7.919254658385093</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C182">
         <v>57</v>
       </c>
       <c r="D182">
-        <v>0.1666666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.5833333333333334</v>
+        <v>21.25</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -7877,28 +7877,28 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.61697722567288</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C183">
         <v>57</v>
       </c>
       <c r="D183">
-        <v>0.1666666666666667</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="G183">
-        <v>0.5833333333333334</v>
+        <v>36.41666666666666</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7918,40 +7918,40 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>28.04347826086956</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C184">
         <v>57</v>
       </c>
       <c r="D184">
-        <v>25.16666666666667</v>
+        <v>16</v>
       </c>
       <c r="E184">
-        <v>100</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F184">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>31.41666666666666</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H184">
-        <v>10.14492753623188</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I184">
-        <v>7.246376811594203</v>
+        <v>0</v>
       </c>
       <c r="J184">
-        <v>2.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7959,40 +7959,40 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>30.39772727272727</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C185">
         <v>57</v>
       </c>
       <c r="D185">
-        <v>31</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="E185">
-        <v>83</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>33.08333333333334</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H185">
-        <v>4.347826086956522</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I185">
-        <v>7.246376811594203</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K185">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L185">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M185">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8000,40 +8000,40 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>34.33503836317136</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C186">
         <v>57</v>
       </c>
       <c r="D186">
-        <v>25.33333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E186">
-        <v>49.625</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="F186">
-        <v>1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>24</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H186">
-        <v>2.173913043478261</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I186">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J186">
-        <v>4.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L186">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M186">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8041,28 +8041,28 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>17.62422360248448</v>
+        <v>25.91463414634146</v>
       </c>
       <c r="C187">
         <v>57</v>
       </c>
       <c r="D187">
-        <v>35.83333333333334</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E187">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>35.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H187">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8082,25 +8082,25 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.36789297658863</v>
+        <v>42.38900634249471</v>
       </c>
       <c r="C188">
         <v>57</v>
       </c>
       <c r="D188">
-        <v>29</v>
+        <v>5.5</v>
       </c>
       <c r="E188">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>18.16666666666666</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="H188">
-        <v>1.449275362318841</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8123,40 +8123,40 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>32.03812316715543</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C189">
         <v>57</v>
       </c>
       <c r="D189">
-        <v>34</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E189">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>27.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H189">
-        <v>0.7246376811594203</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I189">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J189">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M189">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8164,40 +8164,40 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12.54180602006689</v>
+        <v>24.47552447552447</v>
       </c>
       <c r="C190">
         <v>57</v>
       </c>
       <c r="D190">
-        <v>8.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E190">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>21.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H190">
-        <v>1.449275362318841</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M190">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8205,40 +8205,40 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>26.2531328320802</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C191">
         <v>57</v>
       </c>
       <c r="D191">
-        <v>30.66666666666667</v>
+        <v>13.5</v>
       </c>
       <c r="E191">
-        <v>40</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F191">
-        <v>0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>36.41666666666666</v>
+        <v>22</v>
       </c>
       <c r="H191">
-        <v>1.449275362318841</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I191">
-        <v>7.246376811594203</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M191">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8246,25 +8246,25 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>36.50895140664962</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C192">
         <v>57</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E192">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>10.33333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="H192">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8287,31 +8287,31 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>28.63636363636363</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C193">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D193">
-        <v>8.833333333333334</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="G193">
-        <v>5.333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H193">
-        <v>3.623188405797102</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0.1159420289854438</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K193">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8328,16 +8328,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7.919254658385093</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C194">
         <v>57</v>
       </c>
       <c r="D194">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H194">
-        <v>0.7246376811594203</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8369,25 +8369,25 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>25.59523809523809</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C195">
         <v>57</v>
       </c>
       <c r="D195">
-        <v>1.833333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>0.5833333333333334</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8410,13 +8410,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>42.04545454545455</v>
+        <v>20.23281596452328</v>
       </c>
       <c r="C196">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D196">
-        <v>5.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8425,16 +8425,16 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>3.833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H196">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8451,40 +8451,40 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>36.50895140664962</v>
+        <v>28.75264270613108</v>
       </c>
       <c r="C197">
         <v>57</v>
       </c>
       <c r="D197">
-        <v>0.1666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E197">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0.5833333333333334</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="H197">
-        <v>7.971014492753625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I197">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
         <v>9</v>
-      </c>
-      <c r="M197">
-        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8492,40 +8492,40 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>23.69565217391305</v>
+        <v>27.88461538461539</v>
       </c>
       <c r="C198">
         <v>57</v>
       </c>
       <c r="D198">
-        <v>0.1666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="E198">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>0.5833333333333334</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="H198">
-        <v>2.898550724637682</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I198">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L198">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8533,40 +8533,40 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>17.62422360248448</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="C199">
         <v>57</v>
       </c>
       <c r="D199">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>57.14285714285714</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>22</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H199">
-        <v>3.623188405797102</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I199">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L199">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8574,40 +8574,40 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>28.40909090909091</v>
+        <v>31.00961538461539</v>
       </c>
       <c r="C200">
         <v>57</v>
       </c>
       <c r="D200">
-        <v>4.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>7.833333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J200">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M200">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8615,31 +8615,31 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>19.06354515050167</v>
+        <v>11.95286195286195</v>
       </c>
       <c r="C201">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>0.5833333333333334</v>
+        <v>6.25</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J201">
-        <v>1.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -8648,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8656,28 +8656,28 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7.919254658385093</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="C202">
         <v>57</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="E202">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0.5833333333333334</v>
+        <v>27.75</v>
       </c>
       <c r="H202">
-        <v>2.173913043478261</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8697,28 +8697,28 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>32.03812316715543</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C203">
         <v>57</v>
       </c>
       <c r="D203">
-        <v>8.166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E203">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>4.583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H203">
-        <v>2.173913043478261</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8738,7 +8738,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>19.61697722567288</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C204">
         <v>55</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>3.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -8779,28 +8779,28 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>27.81620553359684</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C205">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D205">
-        <v>3.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>7.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="H205">
-        <v>0.7246376811594203</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I205">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -8820,40 +8820,40 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>27.5</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="C206">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D206">
-        <v>7.333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E206">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>9.583333333333332</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H206">
-        <v>3.623188405797102</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I206">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
       <c r="K206">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="L206">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M206">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -8861,40 +8861,40 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>32.16112531969309</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="C207">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>1.333333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="H207">
-        <v>3.623188405797102</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I207">
-        <v>2.898550724637681</v>
+        <v>0</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="L207">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M207">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -8902,40 +8902,40 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>30.625</v>
+        <v>17.98941798941799</v>
       </c>
       <c r="C208">
         <v>57</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="E208">
-        <v>57.14285714285714</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>1.333333333333333</v>
+        <v>18.58333333333334</v>
       </c>
       <c r="H208">
-        <v>10.14492753623188</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I208">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -8943,40 +8943,40 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.27639751552795</v>
+        <v>19.61279461279461</v>
       </c>
       <c r="C209">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
         <v>12</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <v>6.25</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <v>1.449275362318841</v>
-      </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-      <c r="K209">
-        <v>0</v>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-      <c r="M209">
-        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -8984,28 +8984,28 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>14.77272727272728</v>
+        <v>25.11627906976744</v>
       </c>
       <c r="C210">
         <v>57</v>
       </c>
       <c r="D210">
-        <v>24.66666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>27.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H210">
-        <v>2.898550724637682</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I210">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -9025,7 +9025,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>31.34642356241235</v>
+        <v>18.97018970189702</v>
       </c>
       <c r="C211">
         <v>57</v>
@@ -9034,7 +9034,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="E211">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9066,28 +9066,28 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>17.48251748251748</v>
+        <v>25</v>
       </c>
       <c r="C212">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D212">
-        <v>0.1666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>0.5833333333333334</v>
+        <v>6.25</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9107,28 +9107,28 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>17.62422360248448</v>
+        <v>40.68736141906874</v>
       </c>
       <c r="C213">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D213">
-        <v>5.833333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E213">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>3.833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H213">
-        <v>7.971014492753625</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9148,40 +9148,40 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>24.82468443197756</v>
+        <v>40.68736141906874</v>
       </c>
       <c r="C214">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D214">
-        <v>0.1666666666666667</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="G214">
-        <v>0.5833333333333334</v>
+        <v>34.75</v>
       </c>
       <c r="H214">
-        <v>1.449275362318841</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L214">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M214">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9189,40 +9189,40 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>17.00404858299595</v>
+        <v>17.98941798941799</v>
       </c>
       <c r="C215">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="G215">
-        <v>6.25</v>
+        <v>16.5</v>
       </c>
       <c r="H215">
-        <v>4.347826086956522</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L215">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M215">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9230,40 +9230,40 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>19.48051948051948</v>
+        <v>31.00961538461539</v>
       </c>
       <c r="C216">
         <v>57</v>
       </c>
       <c r="D216">
-        <v>4.166666666666667</v>
+        <v>26.5</v>
       </c>
       <c r="E216">
-        <v>16.66666666666666</v>
+        <v>83</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G216">
-        <v>18.58333333333334</v>
+        <v>28.83333333333334</v>
       </c>
       <c r="H216">
-        <v>1.449275362318841</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M216">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9271,40 +9271,40 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>20.96273291925466</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C217">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D217">
+        <v>33.83333333333334</v>
+      </c>
+      <c r="E217">
+        <v>40</v>
+      </c>
+      <c r="F217">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G217">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="H217">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="I217">
+        <v>21.21212121212121</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
         <v>4</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217">
-        <v>3</v>
-      </c>
-      <c r="H217">
-        <v>1.449275362318841</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217">
-        <v>0</v>
-      </c>
-      <c r="K217">
-        <v>0</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-      <c r="M217">
-        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9312,28 +9312,28 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>24.77272727272727</v>
+        <v>25.11627906976744</v>
       </c>
       <c r="C218">
         <v>57</v>
       </c>
       <c r="D218">
-        <v>2.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>1.333333333333333</v>
+        <v>19</v>
       </c>
       <c r="H218">
-        <v>0.7246376811594203</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9353,31 +9353,31 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>18.65079365079365</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C219">
         <v>57</v>
       </c>
       <c r="D219">
-        <v>0.1666666666666667</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="G219">
-        <v>0.5833333333333334</v>
+        <v>25.66666666666666</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I219">
-        <v>2.898550724637681</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>3.924242424242323</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9394,28 +9394,28 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>25.63938618925831</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="C220">
         <v>57</v>
       </c>
       <c r="D220">
-        <v>6.333333333333333</v>
+        <v>36.16666666666666</v>
       </c>
       <c r="E220">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>6.25</v>
+        <v>40.58333333333334</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I220">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9435,31 +9435,31 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>40.36796536796537</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="C221">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D221">
-        <v>0.1666666666666667</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>0.5833333333333334</v>
+        <v>36.33333333333333</v>
       </c>
       <c r="H221">
-        <v>3.623188405797102</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="I221">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J221">
-        <v>0</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9476,40 +9476,40 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>40.36796536796537</v>
+        <v>11.95286195286195</v>
       </c>
       <c r="C222">
         <v>57</v>
       </c>
       <c r="D222">
-        <v>30.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="E222">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>34.75</v>
+        <v>28.5</v>
       </c>
       <c r="H222">
-        <v>10.14492753623188</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I222">
-        <v>20.28985507246377</v>
+        <v>0</v>
       </c>
       <c r="J222">
-        <v>3.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K222">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L222">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M222">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9517,40 +9517,40 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>19.48051948051948</v>
+        <v>19.61279461279461</v>
       </c>
       <c r="C223">
         <v>57</v>
       </c>
       <c r="D223">
-        <v>24.16666666666667</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="E223">
-        <v>100</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F223">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>16.5</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="H223">
-        <v>10.14492753623188</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I223">
-        <v>20.28985507246377</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J223">
-        <v>2.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K223">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L223">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M223">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9558,40 +9558,40 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>30.625</v>
+        <v>25</v>
       </c>
       <c r="C224">
         <v>57</v>
       </c>
       <c r="D224">
-        <v>26.5</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="E224">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>28.83333333333334</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="H224">
-        <v>4.347826086956522</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I224">
-        <v>20.28985507246377</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J224">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K224">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L224">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9599,28 +9599,28 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>31.34642356241235</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="C225">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D225">
-        <v>33.83333333333334</v>
+        <v>17</v>
       </c>
       <c r="E225">
-        <v>40</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F225">
-        <v>0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>10.33333333333333</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="H225">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I225">
-        <v>20.28985507246377</v>
+        <v>0</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9640,31 +9640,31 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>24.77272727272727</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C226">
         <v>57</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="E226">
-        <v>22.22222222222222</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>19</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="H226">
-        <v>0.7246376811594203</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I226">
-        <v>20.28985507246377</v>
+        <v>0</v>
       </c>
       <c r="J226">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9681,31 +9681,31 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>17.62422360248448</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="C227">
         <v>57</v>
       </c>
       <c r="D227">
-        <v>31.83333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E227">
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>25.66666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H227">
-        <v>2.173913043478261</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>20.28985507246377</v>
+        <v>0</v>
       </c>
       <c r="J227">
-        <v>4.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9722,13 +9722,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>17.00404858299595</v>
+        <v>27.88461538461539</v>
       </c>
       <c r="C228">
         <v>57</v>
       </c>
       <c r="D228">
-        <v>36.16666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -9737,13 +9737,13 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>40.58333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H228">
-        <v>0.7246376811594203</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9763,31 +9763,31 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>32.16112531969309</v>
+        <v>18.97018970189702</v>
       </c>
       <c r="C229">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D229">
-        <v>34.66666666666666</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>36.33333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H229">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2.898550724637681</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9804,40 +9804,40 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.27639751552795</v>
+        <v>28.27417380660955</v>
       </c>
       <c r="C230">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D230">
-        <v>19.5</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>28.5</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H230">
-        <v>1.449275362318841</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
       <c r="K230">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="L230">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M230">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9845,40 +9845,40 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>20.96273291925466</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C231">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D231">
-        <v>11.16666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E231">
-        <v>28.57142857142857</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>3.833333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="H231">
-        <v>1.449275362318841</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I231">
-        <v>2.898550724637681</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J231">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="L231">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M231">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9886,40 +9886,40 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>25.63938618925831</v>
+        <v>27.61627906976744</v>
       </c>
       <c r="C232">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D232">
-        <v>9.833333333333334</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>15.83333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="H232">
-        <v>3.623188405797102</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I232">
-        <v>2.898550724637681</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J232">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="L232">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M232">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9927,25 +9927,25 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.77272727272728</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C233">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D233">
-        <v>17</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="E233">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>22.08333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="H233">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -9968,28 +9968,28 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>17.48251748251748</v>
+        <v>22.2027972027972</v>
       </c>
       <c r="C234">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D234">
-        <v>7.166666666666667</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="E234">
-        <v>57.14285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>4.583333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="H234">
-        <v>3.623188405797102</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10009,22 +10009,22 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>24.82468443197756</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C235">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D235">
-        <v>0.1666666666666667</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>0.5833333333333334</v>
+        <v>3</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10050,13 +10050,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>27.5</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C236">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D236">
-        <v>0.25</v>
+        <v>6.6</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -10065,13 +10065,13 @@
         <v>0</v>
       </c>
       <c r="G236">
-        <v>0.5833333333333334</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>2.898550724637681</v>
+        <v>0</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10091,13 +10091,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>18.65079365079365</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C237">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="G237">
-        <v>0.5833333333333334</v>
+        <v>16.08333333333334</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10132,40 +10132,40 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>27.93062200956938</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C238">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D238">
-        <v>20.33333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="E238">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>10.33333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="H238">
-        <v>7.971014492753623</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I238">
-        <v>5.797101449275362</v>
+        <v>0</v>
       </c>
       <c r="J238">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K238">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="L238">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M238">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10173,40 +10173,40 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>32.03812316715543</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C239">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D239">
-        <v>7.666666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="E239">
-        <v>57.14285714285714</v>
+        <v>20</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>17.5</v>
+        <v>6.25</v>
       </c>
       <c r="H239">
-        <v>2.173913043478261</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J239">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K239">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="L239">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M239">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10214,40 +10214,40 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>27.27272727272727</v>
+        <v>24.47552447552447</v>
       </c>
       <c r="C240">
         <v>55</v>
       </c>
       <c r="D240">
-        <v>10.33333333333333</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>18.18181818181818</v>
+        <v>33</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>6.25</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H240">
-        <v>2.173913043478261</v>
+        <v>5.303030303030303</v>
       </c>
       <c r="I240">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
       <c r="K240">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
         <v>11</v>
-      </c>
-      <c r="M240">
-        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10255,40 +10255,40 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>17.62422360248448</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C241">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D241">
-        <v>9.166666666666666</v>
+        <v>35.16666666666666</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="G241">
-        <v>8.666666666666666</v>
+        <v>30.5</v>
       </c>
       <c r="H241">
-        <v>1.449275362318841</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>4.924242424242323</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="L241">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10296,40 +10296,40 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>21.52173913043478</v>
+        <v>40.68736141906874</v>
       </c>
       <c r="C242">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D242">
-        <v>13.66666666666667</v>
+        <v>49</v>
       </c>
       <c r="E242">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>8.666666666666666</v>
+        <v>38.83333333333333</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>14.39393939393939</v>
       </c>
       <c r="I242">
-        <v>5.797101449275362</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J242">
         <v>0</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="L242">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M242">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10337,40 +10337,40 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>36.50895140664962</v>
+        <v>11.95286195286195</v>
       </c>
       <c r="C243">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E243">
-        <v>16.66666666666666</v>
+        <v>83</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G243">
+        <v>23.08333333333334</v>
+      </c>
+      <c r="H243">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="I243">
+        <v>21.21212121212121</v>
+      </c>
+      <c r="J243">
+        <v>1.924242424242323</v>
+      </c>
+      <c r="K243">
+        <v>239</v>
+      </c>
+      <c r="L243">
+        <v>16</v>
+      </c>
+      <c r="M243">
         <v>3</v>
-      </c>
-      <c r="H243">
-        <v>0</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-      <c r="J243">
-        <v>0</v>
-      </c>
-      <c r="K243">
-        <v>0</v>
-      </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-      <c r="M243">
-        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10378,31 +10378,31 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7.919254658385093</v>
+        <v>25</v>
       </c>
       <c r="C244">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D244">
-        <v>6.6</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="G244">
-        <v>18.83333333333333</v>
+        <v>24.75</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J244">
-        <v>0</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10419,22 +10419,22 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>19.06354515050167</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="C245">
         <v>55</v>
       </c>
       <c r="D245">
-        <v>24.66666666666667</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>16.08333333333334</v>
+        <v>30.16666666666666</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10460,13 +10460,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>26.73160173160173</v>
+        <v>17.98941798941799</v>
       </c>
       <c r="C246">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D246">
-        <v>3.5</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -10475,16 +10475,16 @@
         <v>0</v>
       </c>
       <c r="G246">
-        <v>4.5</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="H246">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10501,22 +10501,22 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>26.13871635610766</v>
+        <v>31.00961538461539</v>
       </c>
       <c r="C247">
         <v>55</v>
       </c>
       <c r="D247">
-        <v>6.5</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="E247">
-        <v>20</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>6.25</v>
+        <v>20.16666666666666</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10542,31 +10542,31 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>23.69565217391305</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="C248">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248">
-        <v>6.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H248">
-        <v>5.072463768115943</v>
+        <v>0</v>
       </c>
       <c r="I248">
         <v>0</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10583,40 +10583,40 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>31.34642356241235</v>
+        <v>19.61279461279461</v>
       </c>
       <c r="C249">
         <v>55</v>
       </c>
       <c r="D249">
-        <v>35.16666666666666</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F249">
-        <v>1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G249">
-        <v>30.5</v>
+        <v>25.33333333333334</v>
       </c>
       <c r="H249">
-        <v>8.695652173913045</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="I249">
-        <v>20.28985507246377</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J249">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K249">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="L249">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M249">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10624,40 +10624,40 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>40.36796536796537</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="C250">
         <v>57</v>
       </c>
       <c r="D250">
-        <v>49</v>
+        <v>14.5</v>
       </c>
       <c r="E250">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="G250">
-        <v>38.83333333333333</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="H250">
-        <v>13.76811594202898</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I250">
-        <v>1.449275362318841</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J250">
         <v>0</v>
       </c>
       <c r="K250">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="L250">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M250">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10665,40 +10665,40 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>13.27639751552795</v>
+        <v>27.88461538461539</v>
       </c>
       <c r="C251">
         <v>57</v>
       </c>
       <c r="D251">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>83</v>
+        <v>12.5</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="G251">
-        <v>23.08333333333334</v>
+        <v>33.08333333333334</v>
       </c>
       <c r="H251">
-        <v>4.347826086956522</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="I251">
-        <v>20.28985507246377</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J251">
-        <v>0.1159420289854438</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K251">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="L251">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M251">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10706,31 +10706,31 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>25.63938618925831</v>
+        <v>17.58373205741627</v>
       </c>
       <c r="C252">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D252">
-        <v>17.66666666666667</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="E252">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="G252">
-        <v>24.75</v>
+        <v>24.41666666666666</v>
       </c>
       <c r="H252">
-        <v>10.14492753623188</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J252">
-        <v>2.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10747,31 +10747,31 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>24.82468443197756</v>
+        <v>25.11627906976744</v>
       </c>
       <c r="C253">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D253">
-        <v>29</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E253">
         <v>22.22222222222222</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="G253">
-        <v>30.16666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H253">
         <v>0</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10788,31 +10788,31 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>19.48051948051948</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C254">
         <v>57</v>
       </c>
       <c r="D254">
-        <v>42.16666666666666</v>
+        <v>3</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="G254">
-        <v>31.83333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="H254">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254">
-        <v>1.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -10829,25 +10829,25 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>30.625</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="C255">
         <v>55</v>
       </c>
       <c r="D255">
-        <v>15.66666666666667</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="E255">
-        <v>57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>20.16666666666666</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -10870,13 +10870,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>17.00404858299595</v>
+        <v>18.97018970189702</v>
       </c>
       <c r="C256">
         <v>57</v>
       </c>
       <c r="D256">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -10885,16 +10885,16 @@
         <v>0</v>
       </c>
       <c r="G256">
-        <v>1.333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>1.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K256">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -10911,40 +10911,40 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>20.96273291925466</v>
+        <v>27.0509977827051</v>
       </c>
       <c r="C257">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D257">
-        <v>21.83333333333333</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="E257">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>25.33333333333334</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="H257">
-        <v>7.971014492753623</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="I257">
-        <v>2.898550724637681</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J257">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K257">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L257">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M257">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -10952,40 +10952,40 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>14.77272727272728</v>
+        <v>22.2027972027972</v>
       </c>
       <c r="C258">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D258">
-        <v>14.5</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F258">
-        <v>0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="G258">
-        <v>12.41666666666667</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="H258">
-        <v>1.449275362318841</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I258">
-        <v>20.28985507246377</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J258">
         <v>0</v>
       </c>
       <c r="K258">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M258">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -10993,40 +10993,40 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>27.5</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C259">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="E259">
-        <v>12.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F259">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G259">
-        <v>33.08333333333334</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="H259">
-        <v>7.246376811594203</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I259">
-        <v>2.898550724637681</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J259">
-        <v>2.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K259">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L259">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M259">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -11034,28 +11034,28 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>17.48251748251748</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C260">
         <v>55</v>
       </c>
       <c r="D260">
-        <v>14.66666666666667</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>24.41666666666666</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11075,31 +11075,31 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>24.77272727272727</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C261">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D261">
-        <v>1.666666666666667</v>
+        <v>12</v>
       </c>
       <c r="E261">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="G261">
-        <v>1.333333333333333</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I261">
-        <v>2.898550724637681</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>3.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11116,25 +11116,25 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>17.62422360248448</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C262">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="F262">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="G262">
-        <v>2.916666666666667</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H262">
-        <v>1.449275362318841</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11157,25 +11157,25 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>32.16112531969309</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C263">
         <v>55</v>
       </c>
       <c r="D263">
-        <v>14.66666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>22.83333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H263">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11198,13 +11198,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>18.65079365079365</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="C264">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -11213,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="G264">
-        <v>0.5833333333333334</v>
+        <v>13.75</v>
       </c>
       <c r="H264">
-        <v>0.7246376811594203</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11239,40 +11239,40 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>26.73160173160173</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C265">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D265">
-        <v>25.16666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E265">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>18.91666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H265">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J265">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K265">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L265">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M265">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11280,40 +11280,40 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>21.52173913043478</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C266">
         <v>55</v>
       </c>
       <c r="D266">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="E266">
-        <v>16.66666666666666</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>9.583333333333332</v>
+        <v>21.25</v>
       </c>
       <c r="H266">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>1.449275362318841</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="J266">
         <v>0</v>
       </c>
       <c r="K266">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L266">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M266">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11321,40 +11321,40 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>17.62422360248448</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C267">
         <v>55</v>
       </c>
       <c r="D267">
-        <v>4.833333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="E267">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>6.166666666666667</v>
+        <v>15.25</v>
       </c>
       <c r="H267">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
       </c>
       <c r="K267">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L267">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11362,28 +11362,28 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>32.03812316715543</v>
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D268">
-        <v>9.833333333333334</v>
+        <v>0</v>
       </c>
       <c r="E268">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>9.416666666666666</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>8.695652173913045</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>5.797101449275362</v>
+        <v>0</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11403,40 +11403,40 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>30.39772727272727</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C269">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D269">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E269">
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="G269">
-        <v>9.583333333333332</v>
+        <v>25.66666666666666</v>
       </c>
       <c r="H269">
-        <v>1.449275362318841</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>4.924242424242323</v>
       </c>
       <c r="K269">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="L269">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M269">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11444,40 +11444,40 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>26.2531328320802</v>
+        <v>26.57252888318357</v>
       </c>
       <c r="C270">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D270">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E270">
-        <v>14.28571428571428</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G270">
-        <v>10.33333333333333</v>
+        <v>23.5</v>
       </c>
       <c r="H270">
-        <v>2.898550724637682</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I270">
-        <v>1.449275362318841</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K270">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="L270">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M270">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11485,40 +11485,40 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>28.04347826086956</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C271">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D271">
-        <v>0.1666666666666667</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="E271">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <v>0.5833333333333334</v>
+        <v>25.25</v>
       </c>
       <c r="H271">
-        <v>2.898550724637681</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J271">
-        <v>0</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K271">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="L271">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M271">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11526,28 +11526,28 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>19.06354515050167</v>
+        <v>30.74127906976744</v>
       </c>
       <c r="C272">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D272">
-        <v>6.166666666666667</v>
+        <v>35</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <v>13.75</v>
+        <v>37.16666666666667</v>
       </c>
       <c r="H272">
-        <v>2.173913043478261</v>
+        <v>14.39393939393939</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11567,31 +11567,31 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>12.54180602006689</v>
+        <v>42.38900634249471</v>
       </c>
       <c r="C273">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D273">
-        <v>0.1666666666666667</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="E273">
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="G273">
-        <v>0.5833333333333334</v>
+        <v>31.41666666666666</v>
       </c>
       <c r="H273">
         <v>0</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>2.924242424242323</v>
       </c>
       <c r="K273">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11608,28 +11608,28 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7.919254658385093</v>
+        <v>13.03827751196172</v>
       </c>
       <c r="C274">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="E274">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>21.25</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="I274">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11649,28 +11649,28 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>36.50895140664962</v>
+        <v>29.02097902097902</v>
       </c>
       <c r="C275">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D275">
-        <v>18.66666666666667</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>15.25</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11690,31 +11690,31 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>8.249158249158249</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>39.75</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J276">
-        <v>0</v>
+        <v>1.924242424242323</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11731,40 +11731,40 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>28.63636363636363</v>
+        <v>14.22558922558922</v>
       </c>
       <c r="C277">
         <v>57</v>
       </c>
       <c r="D277">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F277">
-        <v>1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G277">
-        <v>25.66666666666666</v>
+        <v>23.91666666666666</v>
       </c>
       <c r="H277">
-        <v>8.695652173913045</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <v>20.28985507246377</v>
+        <v>0</v>
       </c>
       <c r="J277">
-        <v>0.1159420289854438</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K277">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L277">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M277">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11772,40 +11772,40 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>26.2531328320802</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="C278">
         <v>57</v>
       </c>
       <c r="D278">
-        <v>25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E278">
-        <v>57.14285714285714</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F278">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G278">
-        <v>23.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H278">
-        <v>1.449275362318841</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="I278">
-        <v>2.898550724637681</v>
+        <v>0</v>
       </c>
       <c r="J278">
-        <v>1.115942028985444</v>
+        <v>0</v>
       </c>
       <c r="K278">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L278">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M278">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11813,40 +11813,40 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>34.33503836317136</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="C279">
         <v>57</v>
       </c>
       <c r="D279">
-        <v>25.16666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E279">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>25.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H279">
-        <v>7.971014492753623</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I279">
-        <v>2.898550724637681</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J279">
-        <v>0.1159420289854438</v>
+        <v>0</v>
       </c>
       <c r="K279">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L279">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M279">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11854,28 +11854,28 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>30.39772727272727</v>
+        <v>25.91463414634146</v>
       </c>
       <c r="C280">
         <v>57</v>
       </c>
       <c r="D280">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E280">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>37.16666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H280">
-        <v>13.76811594202898</v>
+        <v>0</v>
       </c>
       <c r="I280">
-        <v>20.28985507246377</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11895,31 +11895,31 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>42.04545454545455</v>
+        <v>10.76555023923445</v>
       </c>
       <c r="C281">
         <v>57</v>
       </c>
       <c r="D281">
-        <v>29.66666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F281">
-        <v>0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="G281">
-        <v>31.41666666666666</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="I281">
-        <v>2.898550724637681</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="J281">
-        <v>3.115942028985444</v>
+        <v>0.9242424242423226</v>
       </c>
       <c r="K281">
         <v>0</v>
@@ -11928,334 +11928,6 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>12.54180602006689</v>
-      </c>
-      <c r="C282">
-        <v>57</v>
-      </c>
-      <c r="D282">
-        <v>7.833333333333333</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="H282">
-        <v>2.898550724637681</v>
-      </c>
-      <c r="I282">
-        <v>0</v>
-      </c>
-      <c r="J282">
-        <v>0</v>
-      </c>
-      <c r="K282">
-        <v>0</v>
-      </c>
-      <c r="L282">
-        <v>0</v>
-      </c>
-      <c r="M282">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>28.04347826086956</v>
-      </c>
-      <c r="C283">
-        <v>57</v>
-      </c>
-      <c r="D283">
-        <v>25.66666666666667</v>
-      </c>
-      <c r="E283">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>10.33333333333333</v>
-      </c>
-      <c r="H283">
-        <v>3.623188405797102</v>
-      </c>
-      <c r="I283">
-        <v>2.898550724637681</v>
-      </c>
-      <c r="J283">
-        <v>0.1159420289854438</v>
-      </c>
-      <c r="K283">
-        <v>0</v>
-      </c>
-      <c r="L283">
-        <v>0</v>
-      </c>
-      <c r="M283">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>7.919254658385093</v>
-      </c>
-      <c r="C284">
-        <v>57</v>
-      </c>
-      <c r="D284">
-        <v>35.83333333333334</v>
-      </c>
-      <c r="E284">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="F284">
-        <v>0.5</v>
-      </c>
-      <c r="G284">
-        <v>39.75</v>
-      </c>
-      <c r="H284">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="I284">
-        <v>2.898550724637681</v>
-      </c>
-      <c r="J284">
-        <v>0.1159420289854438</v>
-      </c>
-      <c r="K284">
-        <v>0</v>
-      </c>
-      <c r="L284">
-        <v>0</v>
-      </c>
-      <c r="M284">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>17.62422360248448</v>
-      </c>
-      <c r="C285">
-        <v>57</v>
-      </c>
-      <c r="D285">
-        <v>18</v>
-      </c>
-      <c r="E285">
-        <v>60</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>23.91666666666666</v>
-      </c>
-      <c r="H285">
-        <v>0</v>
-      </c>
-      <c r="I285">
-        <v>0</v>
-      </c>
-      <c r="J285">
-        <v>1.115942028985444</v>
-      </c>
-      <c r="K285">
-        <v>0</v>
-      </c>
-      <c r="L285">
-        <v>0</v>
-      </c>
-      <c r="M285">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>36.50895140664962</v>
-      </c>
-      <c r="C286">
-        <v>57</v>
-      </c>
-      <c r="D286">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="E286">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H286">
-        <v>3.623188405797102</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
-      </c>
-      <c r="J286">
-        <v>0</v>
-      </c>
-      <c r="K286">
-        <v>0</v>
-      </c>
-      <c r="L286">
-        <v>0</v>
-      </c>
-      <c r="M286">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>32.03812316715543</v>
-      </c>
-      <c r="C287">
-        <v>57</v>
-      </c>
-      <c r="D287">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>0</v>
-      </c>
-      <c r="G287">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H287">
-        <v>2.173913043478261</v>
-      </c>
-      <c r="I287">
-        <v>2.898550724637681</v>
-      </c>
-      <c r="J287">
-        <v>0</v>
-      </c>
-      <c r="K287">
-        <v>0</v>
-      </c>
-      <c r="L287">
-        <v>0</v>
-      </c>
-      <c r="M287">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288">
-        <v>25.59523809523809</v>
-      </c>
-      <c r="C288">
-        <v>57</v>
-      </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
-      </c>
-      <c r="G288">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H288">
-        <v>0</v>
-      </c>
-      <c r="I288">
-        <v>2.898550724637681</v>
-      </c>
-      <c r="J288">
-        <v>0</v>
-      </c>
-      <c r="K288">
-        <v>0</v>
-      </c>
-      <c r="L288">
-        <v>0</v>
-      </c>
-      <c r="M288">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>10.36789297658863</v>
-      </c>
-      <c r="C289">
-        <v>57</v>
-      </c>
-      <c r="D289">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="E289">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>15.66666666666667</v>
-      </c>
-      <c r="H289">
-        <v>0.7246376811594203</v>
-      </c>
-      <c r="I289">
-        <v>20.28985507246377</v>
-      </c>
-      <c r="J289">
-        <v>0.1159420289854438</v>
-      </c>
-      <c r="K289">
-        <v>0</v>
-      </c>
-      <c r="L289">
-        <v>0</v>
-      </c>
-      <c r="M289">
         <v>13</v>
       </c>
     </row>
